--- a/Code/Results/Cases/Case_5_112/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_112/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.091122785811876</v>
+        <v>0.3770835877108993</v>
       </c>
       <c r="C2">
-        <v>0.1694909872852577</v>
+        <v>0.06204085455566144</v>
       </c>
       <c r="D2">
-        <v>0.04943596884726276</v>
+        <v>0.02428201727138912</v>
       </c>
       <c r="E2">
-        <v>1.392440247017561</v>
+        <v>0.4169131172345146</v>
       </c>
       <c r="F2">
-        <v>0.5207747214362684</v>
+        <v>0.674504049928629</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.163274244230507</v>
+        <v>0.362824689027974</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6109476345466101</v>
+        <v>1.274553151604099</v>
       </c>
       <c r="O2">
-        <v>1.486946019664373</v>
+        <v>2.286437771945032</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9467666761072167</v>
+        <v>0.3350854292761483</v>
       </c>
       <c r="C3">
-        <v>0.1510548255390773</v>
+        <v>0.05623166161785775</v>
       </c>
       <c r="D3">
-        <v>0.04468659607631054</v>
+        <v>0.02260588466011626</v>
       </c>
       <c r="E3">
-        <v>1.196578714534411</v>
+        <v>0.3637838837403109</v>
       </c>
       <c r="F3">
-        <v>0.4836755963452219</v>
+        <v>0.6703514289716281</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.01168749683859</v>
+        <v>0.3177370021360844</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6497633903003401</v>
+        <v>1.290348779400875</v>
       </c>
       <c r="O3">
-        <v>1.412453450586156</v>
+        <v>2.286328194739156</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8584876231990961</v>
+        <v>0.3093405411897834</v>
       </c>
       <c r="C4">
-        <v>0.1397475024127317</v>
+        <v>0.05264010522283513</v>
       </c>
       <c r="D4">
-        <v>0.04175545259209201</v>
+        <v>0.02156747538315784</v>
       </c>
       <c r="E4">
-        <v>1.078390260062505</v>
+        <v>0.3312461650622396</v>
       </c>
       <c r="F4">
-        <v>0.4619957181158441</v>
+        <v>0.6682533619767952</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.9189004156527574</v>
+        <v>0.2900296133697111</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6746394851341095</v>
+        <v>1.300534452545329</v>
       </c>
       <c r="O4">
-        <v>1.370257303277668</v>
+        <v>2.287740803486514</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8225837914902172</v>
+        <v>0.2988602305306642</v>
       </c>
       <c r="C5">
-        <v>0.1351403777330091</v>
+        <v>0.05117033785384706</v>
       </c>
       <c r="D5">
-        <v>0.04055711913309068</v>
+        <v>0.02114201639177082</v>
       </c>
       <c r="E5">
-        <v>1.030670211302777</v>
+        <v>0.3180062801571495</v>
       </c>
       <c r="F5">
-        <v>0.4534187069003792</v>
+        <v>0.6675118070990322</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.8811415321322613</v>
+        <v>0.2787330757165876</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6850311738576801</v>
+        <v>1.304807596311655</v>
       </c>
       <c r="O5">
-        <v>1.353896053793591</v>
+        <v>2.28868799294176</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.816625720420717</v>
+        <v>0.297120653797009</v>
       </c>
       <c r="C6">
-        <v>0.1343753422606255</v>
+        <v>0.05092591177715633</v>
       </c>
       <c r="D6">
-        <v>0.04035790053967503</v>
+        <v>0.02107123126454979</v>
       </c>
       <c r="E6">
-        <v>1.022770903654234</v>
+        <v>0.3158089389432064</v>
       </c>
       <c r="F6">
-        <v>0.4520095410268894</v>
+        <v>0.6673955187060301</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.8748743228198634</v>
+        <v>0.2768569685403293</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6867718558846939</v>
+        <v>1.305524538768959</v>
       </c>
       <c r="O6">
-        <v>1.351228058215639</v>
+        <v>2.28886769594223</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8580031498977405</v>
+        <v>0.3091991553052935</v>
       </c>
       <c r="C7">
-        <v>0.1396853693907048</v>
+        <v>0.0526203084050394</v>
       </c>
       <c r="D7">
-        <v>0.04173930723051456</v>
+        <v>0.02156174676378697</v>
       </c>
       <c r="E7">
-        <v>1.077744997113811</v>
+        <v>0.3310675304697952</v>
       </c>
       <c r="F7">
-        <v>0.4618790259389911</v>
+        <v>0.6682429020566616</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.9183909983159708</v>
+        <v>0.2898772863597685</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6747786106962609</v>
+        <v>1.300591586181338</v>
       </c>
       <c r="O7">
-        <v>1.370033345373145</v>
+        <v>2.287752074055049</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.041263030829668</v>
+        <v>0.3625940654347346</v>
       </c>
       <c r="C8">
-        <v>0.16313005105728</v>
+        <v>0.06004298466099556</v>
       </c>
       <c r="D8">
-        <v>0.04780143922366875</v>
+        <v>0.02370602493705576</v>
       </c>
       <c r="E8">
-        <v>1.324428224973602</v>
+        <v>0.3985757854852636</v>
       </c>
       <c r="F8">
-        <v>0.5077432199666987</v>
+        <v>0.6729783912405267</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.110935047401568</v>
+        <v>0.347283484634147</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6241099856110175</v>
+        <v>1.279898338295507</v>
       </c>
       <c r="O8">
-        <v>1.460490423939063</v>
+        <v>2.286092475541409</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.404398682649628</v>
+        <v>0.4676261129159798</v>
       </c>
       <c r="C9">
-        <v>0.2093276188161326</v>
+        <v>0.07440233283342934</v>
       </c>
       <c r="D9">
-        <v>0.05957545792146135</v>
+        <v>0.02783640828050693</v>
       </c>
       <c r="E9">
-        <v>1.82850203870062</v>
+        <v>0.5317021362696437</v>
       </c>
       <c r="F9">
-        <v>0.6073094891596824</v>
+        <v>0.6858566540029898</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.491776426776568</v>
+        <v>0.459662796498634</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5333977352116628</v>
+        <v>1.243186959970292</v>
       </c>
       <c r="O9">
-        <v>1.668740973525956</v>
+        <v>2.294610304080578</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.674924689108337</v>
+        <v>0.5449860507108895</v>
       </c>
       <c r="C10">
-        <v>0.2435960418207657</v>
+        <v>0.08483253962364756</v>
       </c>
       <c r="D10">
-        <v>0.06816529797068682</v>
+        <v>0.03082436763538965</v>
       </c>
       <c r="E10">
-        <v>2.217294848723213</v>
+        <v>0.6300792176655534</v>
       </c>
       <c r="F10">
-        <v>0.687693406230423</v>
+        <v>0.697521776632442</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.775075083233759</v>
+        <v>0.5421061580285027</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.4725758114442784</v>
+        <v>1.218576562687081</v>
       </c>
       <c r="O10">
-        <v>1.844712835781223</v>
+        <v>2.308091560551418</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.79915740020499</v>
+        <v>0.5802203928164431</v>
       </c>
       <c r="C11">
-        <v>0.2593048326674818</v>
+        <v>0.0895516444762734</v>
       </c>
       <c r="D11">
-        <v>0.07206208649478185</v>
+        <v>0.03217330660627482</v>
       </c>
       <c r="E11">
-        <v>2.399721647231218</v>
+        <v>0.6749827859718778</v>
       </c>
       <c r="F11">
-        <v>0.726165964505725</v>
+        <v>0.7033101054859827</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.905085976498242</v>
+        <v>0.5795851526362696</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.4463050574534484</v>
+        <v>1.207894173695783</v>
       </c>
       <c r="O11">
-        <v>1.930773518928646</v>
+        <v>2.3158033826561</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.846401301407155</v>
+        <v>0.5935686640659981</v>
       </c>
       <c r="C12">
-        <v>0.2652750574088145</v>
+        <v>0.09133494437777756</v>
       </c>
       <c r="D12">
-        <v>0.0735363289062434</v>
+        <v>0.032682607991255</v>
       </c>
       <c r="E12">
-        <v>2.469749699609451</v>
+        <v>0.692010265313499</v>
       </c>
       <c r="F12">
-        <v>0.741039097713255</v>
+        <v>0.7055714866965985</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.954515148532408</v>
+        <v>0.5937736860145719</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.4365703883961711</v>
+        <v>1.203922902070837</v>
       </c>
       <c r="O12">
-        <v>1.964320591948848</v>
+        <v>2.318951489422119</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.836217066174271</v>
+        <v>0.5906936235362821</v>
       </c>
       <c r="C13">
-        <v>0.2639882244528309</v>
+        <v>0.09095104494875272</v>
       </c>
       <c r="D13">
-        <v>0.07321888337429527</v>
+        <v>0.03257298859691105</v>
       </c>
       <c r="E13">
-        <v>2.454623246652559</v>
+        <v>0.688342021650584</v>
       </c>
       <c r="F13">
-        <v>0.7378218491367363</v>
+        <v>0.7050813653103916</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.943860368557182</v>
+        <v>0.5907181129259129</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.4386572168923473</v>
+        <v>1.204774896588745</v>
       </c>
       <c r="O13">
-        <v>1.957051448083519</v>
+        <v>2.318263344849242</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.803039991020796</v>
+        <v>0.5813184492519952</v>
       </c>
       <c r="C14">
-        <v>0.2597955458132475</v>
+        <v>0.08969843243542641</v>
       </c>
       <c r="D14">
-        <v>0.07218340012099134</v>
+        <v>0.03221523763128431</v>
       </c>
       <c r="E14">
-        <v>2.405463009713415</v>
+        <v>0.6763831666736309</v>
       </c>
       <c r="F14">
-        <v>0.7273833010622894</v>
+        <v>0.7034947574093309</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.909148395524255</v>
+        <v>0.5807525330477006</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.4454998258829677</v>
+        <v>1.207565972518413</v>
       </c>
       <c r="O14">
-        <v>1.933513694460117</v>
+        <v>2.316057809504969</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.78274506610947</v>
+        <v>0.5755766271189202</v>
       </c>
       <c r="C15">
-        <v>0.2572303672938716</v>
+        <v>0.0889306852835432</v>
       </c>
       <c r="D15">
-        <v>0.07154896117400966</v>
+        <v>0.03199590692432963</v>
       </c>
       <c r="E15">
-        <v>2.375478949923675</v>
+        <v>0.6690611305115368</v>
       </c>
       <c r="F15">
-        <v>0.7210299825589743</v>
+        <v>0.7025319663316054</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.887912995562232</v>
+        <v>0.574647802540909</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.4497193156533026</v>
+        <v>1.209285217770342</v>
       </c>
       <c r="O15">
-        <v>1.91922379622892</v>
+        <v>2.314736544367577</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.666831943424427</v>
+        <v>0.5426842346172407</v>
       </c>
       <c r="C16">
-        <v>0.2425722136225232</v>
+        <v>0.08452361595524849</v>
       </c>
       <c r="D16">
-        <v>0.06791043046203527</v>
+        <v>0.03073600136175259</v>
       </c>
       <c r="E16">
-        <v>2.205496926265255</v>
+        <v>0.6271478550841465</v>
       </c>
       <c r="F16">
-        <v>0.6852200134400874</v>
+        <v>0.6971532065754076</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.766604222035141</v>
+        <v>0.539656285018566</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.4743218352721161</v>
+        <v>1.219285017447427</v>
       </c>
       <c r="O16">
-        <v>1.839217302124979</v>
+        <v>2.307619413299136</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.596043946093147</v>
+        <v>0.522516538096653</v>
       </c>
       <c r="C17">
-        <v>0.2336136049020041</v>
+        <v>0.08181342782572187</v>
       </c>
       <c r="D17">
-        <v>0.06567566172986261</v>
+        <v>0.0299604298429017</v>
       </c>
       <c r="E17">
-        <v>2.102742278196914</v>
+        <v>0.6014753923363543</v>
       </c>
       <c r="F17">
-        <v>0.6637605729913361</v>
+        <v>0.693977044181679</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.692499140444966</v>
+        <v>0.5181834819954645</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.4897811975029398</v>
+        <v>1.225551067461026</v>
       </c>
       <c r="O17">
-        <v>1.791739076748854</v>
+        <v>2.30365825535074</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.555436541629376</v>
+        <v>0.510920674849018</v>
       </c>
       <c r="C18">
-        <v>0.2284718458004562</v>
+        <v>0.0802521871741817</v>
       </c>
       <c r="D18">
-        <v>0.06438925733866085</v>
+        <v>0.02951337413139044</v>
       </c>
       <c r="E18">
-        <v>2.044154327361227</v>
+        <v>0.5867234126350525</v>
       </c>
       <c r="F18">
-        <v>0.6515950494124922</v>
+        <v>0.69219553842143</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.649980684893535</v>
+        <v>0.5058305713976665</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.4988037362529634</v>
+        <v>1.229203411001974</v>
       </c>
       <c r="O18">
-        <v>1.764990474331</v>
+        <v>2.301528493406948</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.541705204617443</v>
+        <v>0.5069952241472606</v>
       </c>
       <c r="C19">
-        <v>0.2267326967569687</v>
+        <v>0.07972316468554652</v>
       </c>
       <c r="D19">
-        <v>0.06395352222949668</v>
+        <v>0.02936184354677351</v>
       </c>
       <c r="E19">
-        <v>2.024401512104404</v>
+        <v>0.5817310227705548</v>
       </c>
       <c r="F19">
-        <v>0.6475055956080809</v>
+        <v>0.6916001325926686</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.635601706459596</v>
+        <v>0.5016477004940327</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5018806995170739</v>
+        <v>1.230448318999632</v>
       </c>
       <c r="O19">
-        <v>1.756027263986056</v>
+        <v>2.30083289115251</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.603568054754163</v>
+        <v>0.5246630061439816</v>
       </c>
       <c r="C20">
-        <v>0.2345660957436735</v>
+        <v>0.08210218187666385</v>
       </c>
       <c r="D20">
-        <v>0.06591366157847744</v>
+        <v>0.03004309111527448</v>
       </c>
       <c r="E20">
-        <v>2.113626501716524</v>
+        <v>0.6042067938678031</v>
       </c>
       <c r="F20">
-        <v>0.6660263976244352</v>
+        <v>0.6943104583603912</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.700376672296017</v>
+        <v>0.5204695415436333</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.4881219052430741</v>
+        <v>1.224879038154809</v>
       </c>
       <c r="O20">
-        <v>1.796734647189254</v>
+        <v>2.304064543444042</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.81277921649351</v>
+        <v>0.5840720110724078</v>
       </c>
       <c r="C21">
-        <v>0.2610264120977206</v>
+        <v>0.09006645640147326</v>
       </c>
       <c r="D21">
-        <v>0.07248758292968205</v>
+        <v>0.03232035906292197</v>
       </c>
       <c r="E21">
-        <v>2.419875597748572</v>
+        <v>0.6798951215308051</v>
       </c>
       <c r="F21">
-        <v>0.7304408377002432</v>
+        <v>0.7039588958371326</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.919338517763208</v>
+        <v>0.5836797755066243</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.4434840861829525</v>
+        <v>1.206744158572588</v>
       </c>
       <c r="O21">
-        <v>1.940400520352142</v>
+        <v>2.316699440240171</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.950691553749039</v>
+        <v>0.6229328061783121</v>
       </c>
       <c r="C22">
-        <v>0.2784483484634563</v>
+        <v>0.09524985580731027</v>
       </c>
       <c r="D22">
-        <v>0.07677602222310753</v>
+        <v>0.0337998545811331</v>
       </c>
       <c r="E22">
-        <v>2.625629038630862</v>
+        <v>0.7294994389327201</v>
       </c>
       <c r="F22">
-        <v>0.774329946166489</v>
+        <v>0.7106696982456526</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.063608226613667</v>
+        <v>0.6249681334513184</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.4155617299635077</v>
+        <v>1.195322883767823</v>
       </c>
       <c r="O22">
-        <v>2.039927065127699</v>
+        <v>2.326285251598364</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.876965859786566</v>
+        <v>0.6021891218030362</v>
       </c>
       <c r="C23">
-        <v>0.2691365781205377</v>
+        <v>0.09248537614878671</v>
       </c>
       <c r="D23">
-        <v>0.07448787610422869</v>
+        <v>0.03301103839224595</v>
       </c>
       <c r="E23">
-        <v>2.515248388519339</v>
+        <v>0.7030115201910832</v>
       </c>
       <c r="F23">
-        <v>0.7507308668821793</v>
+        <v>0.7070508991911169</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.986490199817979</v>
+        <v>0.6029340020307359</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.4303455128351814</v>
+        <v>1.201379154373702</v>
       </c>
       <c r="O23">
-        <v>1.986259211990159</v>
+        <v>2.321047353218432</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.60016612862222</v>
+        <v>0.5236925916054531</v>
       </c>
       <c r="C24">
-        <v>0.2341354479731024</v>
+        <v>0.08197164587932093</v>
       </c>
       <c r="D24">
-        <v>0.06580606686153345</v>
+        <v>0.03000572359363929</v>
       </c>
       <c r="E24">
-        <v>2.108704238036808</v>
+        <v>0.6029719041564476</v>
       </c>
       <c r="F24">
-        <v>0.6650014854696167</v>
+        <v>0.6941595831670782</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.69681497618015</v>
+        <v>0.5194360386354333</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.4888716525075651</v>
+        <v>1.225182707146159</v>
       </c>
       <c r="O24">
-        <v>1.794474452154191</v>
+        <v>2.303880400991517</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.305616931196994</v>
+        <v>0.4391779234190381</v>
       </c>
       <c r="C25">
-        <v>0.1967874927509143</v>
+        <v>0.07053876740212672</v>
       </c>
       <c r="D25">
-        <v>0.05640158720034805</v>
+        <v>0.0267271338740116</v>
       </c>
       <c r="E25">
-        <v>1.689374722117563</v>
+        <v>0.4955964288448769</v>
       </c>
       <c r="F25">
-        <v>0.5792093663527638</v>
+        <v>0.6819867835137501</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.388251836783496</v>
+        <v>0.4292823501930059</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.5569575451592823</v>
+        <v>1.252703924108705</v>
       </c>
       <c r="O25">
-        <v>1.60869122599496</v>
+        <v>2.291040909878177</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_112/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_112/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3770835877108993</v>
+        <v>1.091122785811876</v>
       </c>
       <c r="C2">
-        <v>0.06204085455566144</v>
+        <v>0.1694909872849308</v>
       </c>
       <c r="D2">
-        <v>0.02428201727138912</v>
+        <v>0.04943596884726986</v>
       </c>
       <c r="E2">
-        <v>0.4169131172345146</v>
+        <v>1.392440247017547</v>
       </c>
       <c r="F2">
-        <v>0.674504049928629</v>
+        <v>0.5207747214362755</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.362824689027974</v>
+        <v>1.163274244230422</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.274553151604099</v>
+        <v>0.6109476345466163</v>
       </c>
       <c r="O2">
-        <v>2.286437771945032</v>
+        <v>1.486946019664373</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3350854292761483</v>
+        <v>0.9467666761072167</v>
       </c>
       <c r="C3">
-        <v>0.05623166161785775</v>
+        <v>0.1510548255393047</v>
       </c>
       <c r="D3">
-        <v>0.02260588466011626</v>
+        <v>0.04468659607646686</v>
       </c>
       <c r="E3">
-        <v>0.3637838837403109</v>
+        <v>1.196578714534454</v>
       </c>
       <c r="F3">
-        <v>0.6703514289716281</v>
+        <v>0.4836755963452291</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3177370021360844</v>
+        <v>1.01168749683842</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.290348779400875</v>
+        <v>0.6497633903003301</v>
       </c>
       <c r="O3">
-        <v>2.286328194739156</v>
+        <v>1.412453450586128</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3093405411897834</v>
+        <v>0.8584876231990961</v>
       </c>
       <c r="C4">
-        <v>0.05264010522283513</v>
+        <v>0.1397475024124759</v>
       </c>
       <c r="D4">
-        <v>0.02156747538315784</v>
+        <v>0.04175545259217017</v>
       </c>
       <c r="E4">
-        <v>0.3312461650622396</v>
+        <v>1.078390260062505</v>
       </c>
       <c r="F4">
-        <v>0.6682533619767952</v>
+        <v>0.4619957181158441</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2900296133697111</v>
+        <v>0.9189004156526721</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.300534452545329</v>
+        <v>0.674639485134098</v>
       </c>
       <c r="O4">
-        <v>2.287740803486514</v>
+        <v>1.37025730327764</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2988602305306642</v>
+        <v>0.8225837914901319</v>
       </c>
       <c r="C5">
-        <v>0.05117033785384706</v>
+        <v>0.135140377733137</v>
       </c>
       <c r="D5">
-        <v>0.02114201639177082</v>
+        <v>0.04055711913314752</v>
       </c>
       <c r="E5">
-        <v>0.3180062801571495</v>
+        <v>1.030670211302791</v>
       </c>
       <c r="F5">
-        <v>0.6675118070990322</v>
+        <v>0.4534187069003792</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2787330757165876</v>
+        <v>0.8811415321323182</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.304807596311655</v>
+        <v>0.6850311738576752</v>
       </c>
       <c r="O5">
-        <v>2.28868799294176</v>
+        <v>1.353896053793619</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.297120653797009</v>
+        <v>0.8166257204206886</v>
       </c>
       <c r="C6">
-        <v>0.05092591177715633</v>
+        <v>0.1343753422606113</v>
       </c>
       <c r="D6">
-        <v>0.02107123126454979</v>
+        <v>0.04035790053983135</v>
       </c>
       <c r="E6">
-        <v>0.3158089389432064</v>
+        <v>1.022770903654219</v>
       </c>
       <c r="F6">
-        <v>0.6673955187060301</v>
+        <v>0.4520095410268681</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2768569685403293</v>
+        <v>0.874874322820034</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.305524538768959</v>
+        <v>0.6867718558846843</v>
       </c>
       <c r="O6">
-        <v>2.28886769594223</v>
+        <v>1.351228058215696</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3091991553052935</v>
+        <v>0.8580031498977121</v>
       </c>
       <c r="C7">
-        <v>0.0526203084050394</v>
+        <v>0.13968536939079</v>
       </c>
       <c r="D7">
-        <v>0.02156174676378697</v>
+        <v>0.04173930723024455</v>
       </c>
       <c r="E7">
-        <v>0.3310675304697952</v>
+        <v>1.077744997113797</v>
       </c>
       <c r="F7">
-        <v>0.6682429020566616</v>
+        <v>0.4618790259389698</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2898772863597685</v>
+        <v>0.9183909983159992</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.300591586181338</v>
+        <v>0.6747786106962421</v>
       </c>
       <c r="O7">
-        <v>2.287752074055049</v>
+        <v>1.370033345373145</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3625940654347346</v>
+        <v>1.041263030829668</v>
       </c>
       <c r="C8">
-        <v>0.06004298466099556</v>
+        <v>0.1631300510569815</v>
       </c>
       <c r="D8">
-        <v>0.02370602493705576</v>
+        <v>0.0478014392236048</v>
       </c>
       <c r="E8">
-        <v>0.3985757854852636</v>
+        <v>1.324428224973587</v>
       </c>
       <c r="F8">
-        <v>0.6729783912405267</v>
+        <v>0.5077432199666845</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.347283484634147</v>
+        <v>1.110935047401426</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.279898338295507</v>
+        <v>0.6241099856109888</v>
       </c>
       <c r="O8">
-        <v>2.286092475541409</v>
+        <v>1.460490423939007</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4676261129159798</v>
+        <v>1.404398682649543</v>
       </c>
       <c r="C9">
-        <v>0.07440233283342934</v>
+        <v>0.2093276188156636</v>
       </c>
       <c r="D9">
-        <v>0.02783640828050693</v>
+        <v>0.05957545792162477</v>
       </c>
       <c r="E9">
-        <v>0.5317021362696437</v>
+        <v>1.82850203870062</v>
       </c>
       <c r="F9">
-        <v>0.6858566540029898</v>
+        <v>0.6073094891596682</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.459662796498634</v>
+        <v>1.491776426776482</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.243186959970292</v>
+        <v>0.5333977352115964</v>
       </c>
       <c r="O9">
-        <v>2.294610304080578</v>
+        <v>1.668740973525871</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5449860507108895</v>
+        <v>1.674924689108337</v>
       </c>
       <c r="C10">
-        <v>0.08483253962364756</v>
+        <v>0.2435960418211067</v>
       </c>
       <c r="D10">
-        <v>0.03082436763538965</v>
+        <v>0.06816529797058024</v>
       </c>
       <c r="E10">
-        <v>0.6300792176655534</v>
+        <v>2.217294848723213</v>
       </c>
       <c r="F10">
-        <v>0.697521776632442</v>
+        <v>0.687693406230423</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5421061580285027</v>
+        <v>1.775075083233787</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.218576562687081</v>
+        <v>0.4725758114442784</v>
       </c>
       <c r="O10">
-        <v>2.308091560551418</v>
+        <v>1.844712835781166</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5802203928164431</v>
+        <v>1.799157400205075</v>
       </c>
       <c r="C11">
-        <v>0.0895516444762734</v>
+        <v>0.2593048326676382</v>
       </c>
       <c r="D11">
-        <v>0.03217330660627482</v>
+        <v>0.07206208649489554</v>
       </c>
       <c r="E11">
-        <v>0.6749827859718778</v>
+        <v>2.399721647231246</v>
       </c>
       <c r="F11">
-        <v>0.7033101054859827</v>
+        <v>0.726165964505725</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.5795851526362696</v>
+        <v>1.905085976498242</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.207894173695783</v>
+        <v>0.4463050574534451</v>
       </c>
       <c r="O11">
-        <v>2.3158033826561</v>
+        <v>1.930773518928646</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5935686640659981</v>
+        <v>1.846401301407326</v>
       </c>
       <c r="C12">
-        <v>0.09133494437777756</v>
+        <v>0.2652750574088003</v>
       </c>
       <c r="D12">
-        <v>0.032682607991255</v>
+        <v>0.07353632890635708</v>
       </c>
       <c r="E12">
-        <v>0.692010265313499</v>
+        <v>2.46974969960948</v>
       </c>
       <c r="F12">
-        <v>0.7055714866965985</v>
+        <v>0.741039097713255</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5937736860145719</v>
+        <v>1.954515148532323</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.203922902070837</v>
+        <v>0.4365703883961745</v>
       </c>
       <c r="O12">
-        <v>2.318951489422119</v>
+        <v>1.964320591948848</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5906936235362821</v>
+        <v>1.836217066174385</v>
       </c>
       <c r="C13">
-        <v>0.09095104494875272</v>
+        <v>0.2639882244532856</v>
       </c>
       <c r="D13">
-        <v>0.03257298859691105</v>
+        <v>0.07321888337429527</v>
       </c>
       <c r="E13">
-        <v>0.688342021650584</v>
+        <v>2.454623246652531</v>
       </c>
       <c r="F13">
-        <v>0.7050813653103916</v>
+        <v>0.7378218491367363</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.5907181129259129</v>
+        <v>1.943860368557239</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.204774896588745</v>
+        <v>0.4386572168923506</v>
       </c>
       <c r="O13">
-        <v>2.318263344849242</v>
+        <v>1.957051448083575</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5813184492519952</v>
+        <v>1.803039991020825</v>
       </c>
       <c r="C14">
-        <v>0.08969843243542641</v>
+        <v>0.2597955458130059</v>
       </c>
       <c r="D14">
-        <v>0.03221523763128431</v>
+        <v>0.07218340012111923</v>
       </c>
       <c r="E14">
-        <v>0.6763831666736309</v>
+        <v>2.405463009713458</v>
       </c>
       <c r="F14">
-        <v>0.7034947574093309</v>
+        <v>0.7273833010622894</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.5807525330477006</v>
+        <v>1.909148395524397</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.207565972518413</v>
+        <v>0.4454998258829104</v>
       </c>
       <c r="O14">
-        <v>2.316057809504969</v>
+        <v>1.933513694460117</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5755766271189202</v>
+        <v>1.782745066109527</v>
       </c>
       <c r="C15">
-        <v>0.0889306852835432</v>
+        <v>0.2572303672942127</v>
       </c>
       <c r="D15">
-        <v>0.03199590692432963</v>
+        <v>0.07154896117401677</v>
       </c>
       <c r="E15">
-        <v>0.6690611305115368</v>
+        <v>2.375478949923675</v>
       </c>
       <c r="F15">
-        <v>0.7025319663316054</v>
+        <v>0.7210299825589743</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.574647802540909</v>
+        <v>1.887912995562203</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.209285217770342</v>
+        <v>0.4497193156533044</v>
       </c>
       <c r="O15">
-        <v>2.314736544367577</v>
+        <v>1.919223796228891</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5426842346172407</v>
+        <v>1.66683194342437</v>
       </c>
       <c r="C16">
-        <v>0.08452361595524849</v>
+        <v>0.2425722136224238</v>
       </c>
       <c r="D16">
-        <v>0.03073600136175259</v>
+        <v>0.06791043046180789</v>
       </c>
       <c r="E16">
-        <v>0.6271478550841465</v>
+        <v>2.205496926265241</v>
       </c>
       <c r="F16">
-        <v>0.6971532065754076</v>
+        <v>0.6852200134400874</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.539656285018566</v>
+        <v>1.766604222035255</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.219285017447427</v>
+        <v>0.4743218352721243</v>
       </c>
       <c r="O16">
-        <v>2.307619413299136</v>
+        <v>1.839217302125007</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.522516538096653</v>
+        <v>1.596043946093147</v>
       </c>
       <c r="C17">
-        <v>0.08181342782572187</v>
+        <v>0.2336136049020183</v>
       </c>
       <c r="D17">
-        <v>0.0299604298429017</v>
+        <v>0.06567566172986261</v>
       </c>
       <c r="E17">
-        <v>0.6014753923363543</v>
+        <v>2.102742278196885</v>
       </c>
       <c r="F17">
-        <v>0.693977044181679</v>
+        <v>0.6637605729913361</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5181834819954645</v>
+        <v>1.692499140445108</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.225551067461026</v>
+        <v>0.4897811975028812</v>
       </c>
       <c r="O17">
-        <v>2.30365825535074</v>
+        <v>1.791739076748996</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.510920674849018</v>
+        <v>1.555436541629376</v>
       </c>
       <c r="C18">
-        <v>0.0802521871741817</v>
+        <v>0.2284718458005273</v>
       </c>
       <c r="D18">
-        <v>0.02951337413139044</v>
+        <v>0.06438925733860401</v>
       </c>
       <c r="E18">
-        <v>0.5867234126350525</v>
+        <v>2.04415432736117</v>
       </c>
       <c r="F18">
-        <v>0.69219553842143</v>
+        <v>0.651595049412478</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5058305713976665</v>
+        <v>1.649980684893706</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.229203411001974</v>
+        <v>0.4988037362529036</v>
       </c>
       <c r="O18">
-        <v>2.301528493406948</v>
+        <v>1.764990474331057</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5069952241472606</v>
+        <v>1.541705204617671</v>
       </c>
       <c r="C19">
-        <v>0.07972316468554652</v>
+        <v>0.2267326967570682</v>
       </c>
       <c r="D19">
-        <v>0.02936184354677351</v>
+        <v>0.06395352222954642</v>
       </c>
       <c r="E19">
-        <v>0.5817310227705548</v>
+        <v>2.024401512104376</v>
       </c>
       <c r="F19">
-        <v>0.6916001325926686</v>
+        <v>0.6475055956080951</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5016477004940327</v>
+        <v>1.635601706459653</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.230448318999632</v>
+        <v>0.5018806995170941</v>
       </c>
       <c r="O19">
-        <v>2.30083289115251</v>
+        <v>1.756027263986141</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5246630061439816</v>
+        <v>1.603568054754192</v>
       </c>
       <c r="C20">
-        <v>0.08210218187666385</v>
+        <v>0.2345660957436451</v>
       </c>
       <c r="D20">
-        <v>0.03004309111527448</v>
+        <v>0.06591366157848455</v>
       </c>
       <c r="E20">
-        <v>0.6042067938678031</v>
+        <v>2.113626501716524</v>
       </c>
       <c r="F20">
-        <v>0.6943104583603912</v>
+        <v>0.666026397624421</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5204695415436333</v>
+        <v>1.700376672295903</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.224879038154809</v>
+        <v>0.4881219052430228</v>
       </c>
       <c r="O20">
-        <v>2.304064543444042</v>
+        <v>1.796734647189226</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5840720110724078</v>
+        <v>1.812779216493283</v>
       </c>
       <c r="C21">
-        <v>0.09006645640147326</v>
+        <v>0.2610264120974932</v>
       </c>
       <c r="D21">
-        <v>0.03232035906292197</v>
+        <v>0.07248758292978863</v>
       </c>
       <c r="E21">
-        <v>0.6798951215308051</v>
+        <v>2.419875597748543</v>
       </c>
       <c r="F21">
-        <v>0.7039588958371326</v>
+        <v>0.7304408377002574</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.5836797755066243</v>
+        <v>1.919338517763123</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.206744158572588</v>
+        <v>0.4434840861829588</v>
       </c>
       <c r="O21">
-        <v>2.316699440240171</v>
+        <v>1.940400520352142</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6229328061783121</v>
+        <v>1.950691553748982</v>
       </c>
       <c r="C22">
-        <v>0.09524985580731027</v>
+        <v>0.2784483484635558</v>
       </c>
       <c r="D22">
-        <v>0.0337998545811331</v>
+        <v>0.07677602222287305</v>
       </c>
       <c r="E22">
-        <v>0.7294994389327201</v>
+        <v>2.625629038630919</v>
       </c>
       <c r="F22">
-        <v>0.7106696982456526</v>
+        <v>0.7743299461664748</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6249681334513184</v>
+        <v>2.063608226613781</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.195322883767823</v>
+        <v>0.4155617299635095</v>
       </c>
       <c r="O22">
-        <v>2.326285251598364</v>
+        <v>2.039927065127699</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6021891218030362</v>
+        <v>1.876965859786566</v>
       </c>
       <c r="C23">
-        <v>0.09248537614878671</v>
+        <v>0.2691365781205519</v>
       </c>
       <c r="D23">
-        <v>0.03301103839224595</v>
+        <v>0.07448787610415764</v>
       </c>
       <c r="E23">
-        <v>0.7030115201910832</v>
+        <v>2.515248388519325</v>
       </c>
       <c r="F23">
-        <v>0.7070508991911169</v>
+        <v>0.7507308668821793</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.6029340020307359</v>
+        <v>1.986490199817837</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.201379154373702</v>
+        <v>0.4303455128351201</v>
       </c>
       <c r="O23">
-        <v>2.321047353218432</v>
+        <v>1.986259211990159</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5236925916054531</v>
+        <v>1.600166128622391</v>
       </c>
       <c r="C24">
-        <v>0.08197164587932093</v>
+        <v>0.2341354479731166</v>
       </c>
       <c r="D24">
-        <v>0.03000572359363929</v>
+        <v>0.06580606686176793</v>
       </c>
       <c r="E24">
-        <v>0.6029719041564476</v>
+        <v>2.108704238036822</v>
       </c>
       <c r="F24">
-        <v>0.6941595831670782</v>
+        <v>0.6650014854696167</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5194360386354333</v>
+        <v>1.696814976180121</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.225182707146159</v>
+        <v>0.488871652507618</v>
       </c>
       <c r="O24">
-        <v>2.303880400991517</v>
+        <v>1.794474452154162</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4391779234190381</v>
+        <v>1.305616931197108</v>
       </c>
       <c r="C25">
-        <v>0.07053876740212672</v>
+        <v>0.1967874927511417</v>
       </c>
       <c r="D25">
-        <v>0.0267271338740116</v>
+        <v>0.05640158720036226</v>
       </c>
       <c r="E25">
-        <v>0.4955964288448769</v>
+        <v>1.689374722117563</v>
       </c>
       <c r="F25">
-        <v>0.6819867835137501</v>
+        <v>0.5792093663527638</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4292823501930059</v>
+        <v>1.388251836783439</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.252703924108705</v>
+        <v>0.5569575451592916</v>
       </c>
       <c r="O25">
-        <v>2.291040909878177</v>
+        <v>1.60869122599496</v>
       </c>
     </row>
   </sheetData>
